--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1819593.482046233</v>
+        <v>1923946.734568314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468236</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.156497791</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5691887.034401153</v>
+        <v>6061620.991061334</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,10 +673,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>6.875455004024998</v>
+        <v>179.0218989709936</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.65343146005593</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -868,16 +870,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>76.50727606555223</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>315.2964759513331</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>186.8962433328384</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>31.08931615601673</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>85.76526452410405</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>204.6657358189418</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>214.9073420582668</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>32.98066327132575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>234.3040180618727</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
-        <v>77.86082557088308</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016035</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>20.08472694640929</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>65.54144271872141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>122.4914619056497</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,10 +2295,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>50.29424103733277</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>159.6574681744382</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>61.23284287475791</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>204.1019852110388</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3278,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3332,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="36">
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3512,16 +3514,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314504</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>52.15425535950411</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>24.34318456170498</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225165</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>284.08595304828</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>58.20611846650583</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4141,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>22.28534392847737</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>94.43123673214961</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307381</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>729.203080354842</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901424</v>
+        <v>300.6214060921103</v>
       </c>
       <c r="D2" t="n">
-        <v>383.9968829274108</v>
+        <v>268.7520253069589</v>
       </c>
       <c r="E2" t="n">
-        <v>354.26254212611</v>
+        <v>239.0176845056581</v>
       </c>
       <c r="F2" t="n">
-        <v>330.4355165757217</v>
+        <v>215.1906589552699</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4424,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.2823514138177</v>
+        <v>943.243825464227</v>
       </c>
       <c r="C4" t="n">
-        <v>481.2823514138177</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D4" t="n">
-        <v>481.2823514138177</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
-        <v>481.2823514138177</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
         <v>428.0970671107308</v>
@@ -4486,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.4625259617433</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1460.661984544523</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1460.661984544523</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1460.661984544523</v>
       </c>
       <c r="W4" t="n">
-        <v>726.6741060804052</v>
+        <v>1188.635580130815</v>
       </c>
       <c r="X4" t="n">
-        <v>481.2823514138177</v>
+        <v>943.243825464227</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.2823514138177</v>
+        <v>943.243825464227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>1668.573996516818</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901424</v>
+        <v>1230.431523700241</v>
       </c>
       <c r="D5" t="n">
-        <v>780.709176404991</v>
+        <v>1198.56214291509</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>764.7873980733851</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>674.5331706342556</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1298.633954679034</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1922.734738723813</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2469.233524682407</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2332.835245299269</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2073.612942616286</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.995992550112</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1710.18094200155</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1695.078882621264</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>1690.833162961322</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0602407069692</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0602407069692</v>
+        <v>700.5968437947132</v>
       </c>
       <c r="N6" t="n">
-        <v>480.0602407069692</v>
+        <v>1324.697627839492</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1324.697627839492</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>632.348846104353</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>459.787134587578</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>293.9091417891007</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>293.9091417891007</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>293.9091417891007</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2005.919660639179</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2413.569927851847</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2167.690481430302</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1889.257480683407</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1602.301972553838</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1602.301972553838</v>
       </c>
       <c r="X7" t="n">
-        <v>859.7685167902448</v>
+        <v>1356.91021788725</v>
       </c>
       <c r="Y7" t="n">
-        <v>632.348846104353</v>
+        <v>1129.490547201358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.2549115535338</v>
+        <v>978.3722678587819</v>
       </c>
       <c r="C8" t="n">
-        <v>314.1124387369571</v>
+        <v>944.2701990826092</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,10 +4807,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
         <v>632.7278666362198</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>1828.060021424321</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.840605738788</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.554482038442</v>
+        <v>1000.631434303286</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
         <v>1064.863269197077</v>
@@ -4942,19 +4944,19 @@
         <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>535.6017198506702</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>93.37735027747209</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2069.047318342809</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.904845526232</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.995060700677</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>761.2203158589718</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>761.2203158589718</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>359.8224844822358</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>70.69232992545204</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>904.62583251077</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>1774.285646849097</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>1774.285646849097</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2643.945461187423</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3513.60527552575</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3513.777027629602</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3513.777027629602</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3513.777027629602</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3513.777027629602</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3513.777027629602</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3151.160077563429</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3151.160077563429</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2732.01761414274</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2495.346888827717</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.33921371304965</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.33921371304965</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>777.072733783427</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1646.732548121754</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1733.515302031401</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1733.515302031401</v>
+        <v>1686.710109957756</v>
       </c>
       <c r="O12" t="n">
-        <v>1733.515302031401</v>
+        <v>1686.710109957756</v>
       </c>
       <c r="P12" t="n">
-        <v>1733.515302031401</v>
+        <v>1686.710109957756</v>
       </c>
       <c r="Q12" t="n">
-        <v>1733.515302031401</v>
+        <v>1686.710109957756</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.7715776295233</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>748.2098661127483</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>582.331873314271</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>412.5738695650082</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>235.8668155267644</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>70.27554055259205</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>70.27554055259205</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.695981412707</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2422.816534991162</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.383534244268</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.428026114698</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.40162170099</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.009867034402</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.590196348511</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1847.872629743828</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1847.872629743828</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1411.962844918273</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>978.1881000765679</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>550.3206704857757</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>148.9228391090396</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259205</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>505.5302280055099</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.880519963688</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>1969.814302084555</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M14" t="n">
-        <v>1969.814302084555</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1969.814302084555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2798.124176917951</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876545</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3513.777027629602</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3293.709800502641</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3034.487497819658</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2671.870547753484</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2267.015093164518</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1847.872629743828</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1847.872629743828</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.33921371304965</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.603585304986</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.7715776295233</v>
+        <v>1015.44100808418</v>
       </c>
       <c r="C16" t="n">
-        <v>748.2098661127483</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D16" t="n">
-        <v>582.331873314271</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>412.5738695650082</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>235.8668155267644</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>70.27554055259205</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>70.27554055259205</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2686.935150455392</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2527.693781753389</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2422.816534991162</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2144.383534244268</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1857.428026114698</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1585.40162170099</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1340.009867034402</v>
+        <v>1434.679297489059</v>
       </c>
       <c r="Y16" t="n">
-        <v>1112.590196348511</v>
+        <v>1207.259626803167</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5500,16 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,16 +5521,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>308.3664920740631</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>168.4643177644376</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>3569.079287993934</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>757.7392890526706</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1832.79925530553</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2989.847090516081</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>4115.578073952528</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="26">
@@ -6230,19 +6232,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6315,7 +6317,7 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1176.997895781659</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1004.436184264884</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>838.5581914664062</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>668.8001877171434</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>492.0931336788997</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1368.816514500646</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>3219.389950875955</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>4199.569617446262</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5027.879492279658</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,40 +6949,40 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580387</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4977.20847509607</v>
       </c>
       <c r="Q35" t="n">
+        <v>4977.20847509607</v>
+      </c>
+      <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="R35" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7163,43 +7165,43 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3895.354312623555</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7254,13 +7256,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1737.537409152261</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2207.367804003958</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1769.225331187381</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1333.315546361825</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>899.5408015201203</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>471.6733719293281</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>70.27554055259205</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>70.27554055259205</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>505.5302280055099</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>946.1475241195529</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>946.1475241195529</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1815.807338457879</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N41" t="n">
-        <v>2685.467152796206</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>2685.467152796206</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>3513.777027629602</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3513.777027629602</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3513.777027629602</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3513.777027629602</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3513.777027629602</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3461.095961609901</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3041.953498189212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2633.667374488865</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805271</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363796</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259205</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I42" t="n">
-        <v>70.31174026839597</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J42" t="n">
-        <v>394.8700652346083</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K42" t="n">
-        <v>1075.603585304986</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L42" t="n">
-        <v>1075.603585304986</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.603585304986</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.603585304986</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O42" t="n">
-        <v>1075.603585304986</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P42" t="n">
-        <v>1075.603585304986</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.342523937061</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.7693779702045</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C43" t="n">
-        <v>607.2076664534294</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D43" t="n">
-        <v>441.3296736549521</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E43" t="n">
-        <v>271.5716699056894</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F43" t="n">
-        <v>94.86461586744556</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G43" t="n">
-        <v>94.86461586744556</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H43" t="n">
-        <v>70.27554055259205</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259205</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J43" t="n">
-        <v>156.8552257172819</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884175</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563786</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R43" t="n">
-        <v>2686.935150455392</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S43" t="n">
-        <v>2527.693781753389</v>
+        <v>5094.802844496303</v>
       </c>
       <c r="T43" t="n">
-        <v>2281.814335331844</v>
+        <v>4848.923398074759</v>
       </c>
       <c r="U43" t="n">
-        <v>2003.381334584949</v>
+        <v>4570.490397327864</v>
       </c>
       <c r="V43" t="n">
-        <v>1716.425826455379</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W43" t="n">
-        <v>1444.399422041671</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X43" t="n">
-        <v>1199.007667375083</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.5879966891916</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1292.252011808584</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>854.1095389920079</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>418.1997541664524</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>359.4056951093758</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>359.4056951093758</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>359.4056951093758</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>70.27554055259205</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>505.5302280055099</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>505.5302280055099</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>505.5302280055099</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>505.5302280055099</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.154487746228</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O44" t="n">
-        <v>1969.814302084555</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P44" t="n">
-        <v>2798.124176917951</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q44" t="n">
-        <v>3344.622962876545</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3430.125153813439</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3210.057926686478</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2950.835624003495</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2950.835624003495</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2545.980169414528</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2126.837705993839</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1718.551582293492</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.33921371304965</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.5929253775798</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C46" t="n">
-        <v>745.0312138608048</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D46" t="n">
-        <v>579.1532210623275</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E46" t="n">
-        <v>409.3952173130647</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F46" t="n">
-        <v>232.6881632748209</v>
+        <v>451.897152078511</v>
       </c>
       <c r="G46" t="n">
-        <v>210.1777148622175</v>
+        <v>286.3058771043387</v>
       </c>
       <c r="H46" t="n">
-        <v>70.27554055259205</v>
+        <v>190.9207894961067</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2665.517329160764</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2665.517329160764</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2419.637882739219</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.204881992324</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1854.249373862755</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.222969449046</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1336.831214782459</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1109.411544096567</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>52.91495433479349</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="O6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.5472142772269</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>364.4204720929774</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>540.0049805212334</v>
@@ -8693,25 +8695,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>878.4442569074006</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N11" t="n">
-        <v>878.4442569074004</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1734869735887514</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>878.4442569074007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>87.6593473834821</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>79.58635534528503</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>636.2967496170372</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>935.0031416802861</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,19 +9169,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>1133.488385918383</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4482437666396</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9878,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N26" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,7 +9895,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9963,10 +9965,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>86.02274874679006</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,19 +10597,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>274.8417277288609</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>137.205594386779</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>28.2456490882098</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>445.0679758727708</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>878.4442569074006</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N41" t="n">
-        <v>878.4442569074006</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949891631</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>600.6305653946649</v>
+        <v>695.4268903509978</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569074006</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.8992444014704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>208.3780274403328</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>222.8531101735124</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>22.23190701435</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.277894049992426</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>65.20415515853261</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>348.6526446835729</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1599680048242</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627316</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.2308789267819</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>141.6500182959532</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>44.07191583437961</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>507061.1742827723</v>
+        <v>515516.0558982891</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>404168.6389696128</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404168.6389696128</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527927.3184424571</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404168.6389696128</v>
+        <v>527927.3184424571</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404168.6389696129</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>342847.2243847304</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="F2" t="n">
-        <v>342847.2243847304</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="G2" t="n">
+        <v>447828.9465167497</v>
+      </c>
+      <c r="H2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="I2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="K2" t="n">
         <v>447828.9465167494</v>
       </c>
-      <c r="I2" t="n">
-        <v>447828.9465167496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>447828.9465167496</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="L2" t="n">
-        <v>447828.9465167496</v>
-      </c>
       <c r="M2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="O2" t="n">
-        <v>342847.2243847304</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="P2" t="n">
-        <v>342847.2243847304</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.77398033713</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.6359157431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084746</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>41771.23975950851</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="F4" t="n">
-        <v>41771.23975950851</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962271</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="K4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962271</v>
       </c>
       <c r="O4" t="n">
-        <v>41771.23975950851</v>
+        <v>54561.82510962267</v>
       </c>
       <c r="P4" t="n">
-        <v>41771.23975950851</v>
+        <v>54561.82510962267</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996995</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996995</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996995</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996995</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60412.45345875057</v>
+        <v>60412.4534587505</v>
       </c>
       <c r="C6" t="n">
-        <v>202603.7541184605</v>
+        <v>162200.2084098131</v>
       </c>
       <c r="D6" t="n">
-        <v>157951.2766921718</v>
+        <v>221974.9075493176</v>
       </c>
       <c r="E6" t="n">
-        <v>184687.7998249148</v>
+        <v>133193.7735802845</v>
       </c>
       <c r="F6" t="n">
-        <v>247666.573805252</v>
+        <v>315548.8828013343</v>
       </c>
       <c r="G6" t="n">
-        <v>205965.2468855911</v>
+        <v>315548.8828013345</v>
       </c>
       <c r="H6" t="n">
-        <v>315548.8828013341</v>
+        <v>315548.8828013343</v>
       </c>
       <c r="I6" t="n">
         <v>315548.8828013343</v>
@@ -26546,22 +26548,22 @@
         <v>204534.4174563441</v>
       </c>
       <c r="K6" t="n">
+        <v>262503.0281625617</v>
+      </c>
+      <c r="L6" t="n">
+        <v>306156.5810747119</v>
+      </c>
+      <c r="M6" t="n">
+        <v>163348.7118633465</v>
+      </c>
+      <c r="N6" t="n">
         <v>315548.8828013343</v>
       </c>
-      <c r="L6" t="n">
-        <v>253992.2545213659</v>
-      </c>
-      <c r="M6" t="n">
-        <v>262984.5197504868</v>
-      </c>
-      <c r="N6" t="n">
-        <v>315548.8828013341</v>
-      </c>
       <c r="O6" t="n">
-        <v>247666.573805252</v>
+        <v>315548.8828013342</v>
       </c>
       <c r="P6" t="n">
-        <v>247666.5738052519</v>
+        <v>315548.8828013344</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074006</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074006</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.4442569074006</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4442569074006</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995436</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773447</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995436</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995436</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773447</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>390.5083980589437</v>
+        <v>218.3619540919752</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,16 +27539,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>122.2865520378054</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>166.913375891777</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>114.1405214419547</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>30.97031152285339</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>132.8460460684139</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>71.88369049087925</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>226.8849511583581</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>144.0834385072449</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>131.2385495991668</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>52.91495433479349</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="O6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.5472142772269</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>364.4204720929774</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>540.0049805212334</v>
@@ -35413,25 +35415,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>878.4442569074006</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N11" t="n">
-        <v>878.4442569074004</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1734869735887514</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>878.4442569074007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>87.6593473834821</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>79.58635534528503</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>636.2967496170372</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>935.0031416802861</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,19 +35889,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>1133.488385918383</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4482437666396</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36598,13 +36600,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N26" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,7 +36615,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37081,13 +37083,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>86.02274874679006</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,19 +37317,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>274.8417277288609</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-2.268258214386391e-13</v>
+        <v>137.205594386779</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>28.2456490882098</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>445.0679758727708</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>878.4442569074006</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N41" t="n">
-        <v>878.4442569074006</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949891631</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>600.6305653946649</v>
+        <v>695.4268903509978</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569074006</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1923946.734568314</v>
+        <v>1923421.552199282</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916864</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6061620.991061334</v>
+        <v>6061620.991061335</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
-      </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>179.6823727411595</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0218989709936</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>135.4310977608185</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -870,10 +870,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>76.50727606555223</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,16 +904,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>186.8962433328384</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,10 +958,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>184.7880782598113</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>140.0647189123061</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>85.76526452410405</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>214.9073420582668</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>150.3256848869542</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>145.6160698088844</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>39.57637241135509</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629692</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629707</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1767,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016035</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>39.86022305741984</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>20.08472694640929</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>65.54144271872141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>50.29424103733277</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>159.6574681744382</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>61.23284287475791</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1019852110388</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,10 +3480,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3514,16 +3514,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314504</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H40" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225165</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.08595304828</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>94.43123673214961</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307381</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.203080354842</v>
+        <v>1395.53913136414</v>
       </c>
       <c r="C2" t="n">
-        <v>300.6214060921103</v>
+        <v>1361.437062587967</v>
       </c>
       <c r="D2" t="n">
-        <v>268.7520253069589</v>
+        <v>932.8553883252357</v>
       </c>
       <c r="E2" t="n">
-        <v>239.0176845056581</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>215.1906589552699</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>770.8100258395735</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>755.7079664592883</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>751.4622467993457</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.243825464227</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="C4" t="n">
-        <v>770.682113947452</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1460.661984544523</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1460.661984544523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1460.661984544523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>1188.635580130815</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X4" t="n">
-        <v>943.243825464227</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.243825464227</v>
+        <v>741.6032097962661</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.573996516818</v>
+        <v>574.0056065428942</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.431523700241</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.56214291509</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7873980733851</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>740.960372522997</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
         <v>50.43238658947705</v>
@@ -4567,52 +4567,52 @@
         <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947705</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947705</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947705</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947705</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>674.5331706342556</v>
+        <v>557.764910672644</v>
       </c>
       <c r="O5" t="n">
-        <v>1298.633954679034</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1922.734738723813</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2469.233524682407</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473853</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2332.835245299269</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="U5" t="n">
-        <v>2073.612942616286</v>
+        <v>1958.677925847745</v>
       </c>
       <c r="V5" t="n">
-        <v>1710.995992550112</v>
+        <v>1596.060975781571</v>
       </c>
       <c r="W5" t="n">
-        <v>1710.18094200155</v>
+        <v>1191.205521192604</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.078882621264</v>
+        <v>1004.550896687745</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.833162961322</v>
+        <v>1000.305177027802</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993466</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993466</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993466</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>76.49605974993466</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>700.5968437947132</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1324.697627839492</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1324.697627839492</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
         <v>278.9945101244272</v>
@@ -4740,37 +4740,37 @@
         <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639179</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609521</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179225</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2413.569927851847</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2167.690481430302</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1889.257480683407</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1602.301972553838</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1602.301972553838</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1356.91021788725</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1129.490547201358</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.3722678587819</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>944.2701990826092</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>508.3604142570537</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>478.6260734557529</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,25 +4807,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2232.915476013288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.060021424321</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.917558003632</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000.631434303286</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>233.2795245870976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>233.2795245870976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>93.37735027747209</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5041,16 +5041,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5068,25 +5068,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.710109957756</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1686.710109957756</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5275,55 +5275,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.44100808418</v>
+        <v>790.3368563937665</v>
       </c>
       <c r="C16" t="n">
-        <v>842.8792965674086</v>
+        <v>617.7751448769915</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X16" t="n">
-        <v>1434.679297489059</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1207.259626803167</v>
+        <v>982.1554751127537</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.807784200425</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>643.7157707974982</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>473.9577670482354</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>473.9577670482354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>308.3664920740631</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>168.4643177644376</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5764,7 +5764,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5934,16 +5934,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
         <v>2117.975449367836</v>
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1176.997895781659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1004.436184264884</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>838.5581914664062</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>668.8001877171434</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>492.0931336788997</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1368.816514500646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5027.879492279658</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4977.20847509607</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7323,7 +7323,7 @@
         <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,19 +7420,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>5094.802844496303</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>4848.923398074759</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>4570.490397327864</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7660,40 +7660,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>451.897152078511</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>451.897152078511</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>286.3058771043387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961067</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684632</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
         <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>52.91495433479349</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684632</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684632</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5472142772269</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8388,13 +8388,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>364.4204720929774</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>79.58635534528503</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9172,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>137.205594386779</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>695.4268903509978</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>124.3589898130727</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>222.8531101735124</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>22.23190701435</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.277894049992426</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>65.20415515853261</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1599680048248</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627316</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>44.07191583437961</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527927.3184424571</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>527927.3184424571</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="F2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>447828.9465167497</v>
       </c>
       <c r="H2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
         <v>447828.9465167496</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501606</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998288</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877243</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.3017266224</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940155</v>
+        <v>154981.0317940156</v>
       </c>
       <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962272</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="L4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="M4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962267</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962267</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,13 +26502,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60412.4534587505</v>
+        <v>60412.45345875057</v>
       </c>
       <c r="C6" t="n">
-        <v>162200.2084098131</v>
+        <v>162200.2084098132</v>
       </c>
       <c r="D6" t="n">
         <v>221974.9075493176</v>
       </c>
       <c r="E6" t="n">
-        <v>133193.7735802845</v>
+        <v>133170.549240902</v>
       </c>
       <c r="F6" t="n">
-        <v>315548.8828013343</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="G6" t="n">
-        <v>315548.8828013345</v>
+        <v>315525.6584619517</v>
       </c>
       <c r="H6" t="n">
-        <v>315548.8828013343</v>
+        <v>315525.6584619517</v>
       </c>
       <c r="I6" t="n">
-        <v>315548.8828013343</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="J6" t="n">
-        <v>204534.4174563441</v>
+        <v>204511.1931169615</v>
       </c>
       <c r="K6" t="n">
-        <v>262503.0281625617</v>
+        <v>262479.8038231793</v>
       </c>
       <c r="L6" t="n">
-        <v>306156.5810747119</v>
+        <v>306133.3567353292</v>
       </c>
       <c r="M6" t="n">
-        <v>163348.7118633465</v>
+        <v>163325.4875239641</v>
       </c>
       <c r="N6" t="n">
-        <v>315548.8828013343</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="O6" t="n">
-        <v>315548.8828013342</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="P6" t="n">
-        <v>315548.8828013344</v>
+        <v>315525.6584619516</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684632</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26801,10 +26801,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939374</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939374</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939374</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>249.7546246521282</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>218.3619540919752</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27539,13 +27539,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>32.62932595095157</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>166.913375891777</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.97031152285339</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>230.1629605266711</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.15449395818641</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>71.88369049087925</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>144.0834385072449</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.8775775763889</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.28436272291287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>48.19697732171632</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.878887240482274e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.148949810994285e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3.025040328915438e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684632</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
         <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>52.91495433479349</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684632</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684632</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5472142772269</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>364.4204720929774</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35497,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>79.58635534528503</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35810,10 +35810,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645618</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35962,7 +35962,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
         <v>661.3192390158824</v>
@@ -36047,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36132,10 +36132,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>137.205594386779</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>695.4268903509978</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,7 +38037,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
